--- a/tools/xlsx2json/excel/GameConfig.xlsx
+++ b/tools/xlsx2json/excel/GameConfig.xlsx
@@ -14,166 +14,169 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+  <si>
+    <t>app_name</t>
+  </si>
+  <si>
+    <t>challenge_type</t>
+  </si>
+  <si>
+    <t>room_name</t>
+  </si>
+  <si>
+    <t>enter_score</t>
+  </si>
+  <si>
+    <t>room_max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>viewer_max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_goback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto_return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_bg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game_icon</t>
+  </si>
+  <si>
+    <t>game_bg</t>
+  </si>
+  <si>
+    <t>enter_game_scene</t>
+  </si>
+  <si>
+    <t>enter_room_scene</t>
+  </si>
+  <si>
+    <t>GM_DDZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗地主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_yule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texture/BackGround/nj_mahjong_room_logo_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texture/BackGround/hall_game_icon_4</t>
+  </si>
+  <si>
+    <t>Texture/BackGround/hall_game_bg</t>
+  </si>
+  <si>
+    <t>BlackJackScene</t>
+  </si>
+  <si>
+    <t>jiuguan</t>
+  </si>
+  <si>
+    <t>游戏类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比赛类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观战最大人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出可否返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进大厅自动回房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间持续时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>_id#id</t>
-  </si>
-  <si>
-    <t>room_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_ver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>game_type</t>
-  </si>
-  <si>
-    <t>app_name</t>
-  </si>
-  <si>
-    <t>challenge_type</t>
-  </si>
-  <si>
-    <t>room_name</t>
-  </si>
-  <si>
-    <t>enter_score</t>
-  </si>
-  <si>
-    <t>room_max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room_min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>viewer_max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_goback</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auto_return</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete_room_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room_icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room_bg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game_icon</t>
-  </si>
-  <si>
-    <t>game_bg</t>
-  </si>
-  <si>
-    <t>enter_game_scene</t>
-  </si>
-  <si>
-    <t>enter_room_scene</t>
-  </si>
-  <si>
-    <t>DDZ_ZW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GM_DDZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗地主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_yule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Texture/BackGround/nj_mahjong_room_logo_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Texture/BackGround/hall_game_icon_4</t>
-  </si>
-  <si>
-    <t>Texture/BackGround/hall_game_bg</t>
-  </si>
-  <si>
-    <t>BlackJackScene</t>
-  </si>
-  <si>
-    <t>jiuguan</t>
-  </si>
-  <si>
-    <t>房间类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比赛类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入限制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>观战最大人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最小人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退出可否返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进大厅自动回房间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间持续时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enter_level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP_DDZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,21 +524,22 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
     <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
@@ -545,131 +549,131 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="L1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>35</v>
-      </c>
-      <c r="L1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" t="s">
+      <c r="P2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" t="s">
+      <c r="Q2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" t="s">
+      <c r="R2" t="s">
         <v>12</v>
       </c>
-      <c r="O2" t="s">
+      <c r="S2" t="s">
         <v>13</v>
       </c>
-      <c r="P2" t="s">
+      <c r="T2" t="s">
         <v>14</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3">
-        <v>1500</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
+        <v>42</v>
+      </c>
+      <c r="D3">
+        <v>1.1599999999999999</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -696,22 +700,22 @@
         <v>28800</v>
       </c>
       <c r="O3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" t="s">
         <v>23</v>
-      </c>
-      <c r="P3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>25</v>
-      </c>
-      <c r="R3" t="s">
-        <v>26</v>
-      </c>
-      <c r="S3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/tools/xlsx2json/excel/GameConfig.xlsx
+++ b/tools/xlsx2json/excel/GameConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>app_name</t>
   </si>
@@ -152,14 +152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_id#id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最小版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,6 +169,18 @@
   </si>
   <si>
     <t>room_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RM_DDZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_type#id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,13 +528,12 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" customWidth="1"/>
     <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
@@ -549,7 +552,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
@@ -558,7 +561,7 @@
         <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
         <v>25</v>
@@ -596,16 +599,16 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -635,7 +638,7 @@
         <v>8</v>
       </c>
       <c r="N2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
         <v>9</v>
@@ -657,14 +660,14 @@
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>1.1599999999999999</v>

--- a/tools/xlsx2json/excel/GameConfig.xlsx
+++ b/tools/xlsx2json/excel/GameConfig.xlsx
@@ -19,9 +19,6 @@
     <t>app_name</t>
   </si>
   <si>
-    <t>challenge_type</t>
-  </si>
-  <si>
     <t>room_name</t>
   </si>
   <si>
@@ -72,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>game</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>斗地主</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,10 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>比赛类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>房间名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,6 +170,18 @@
   </si>
   <si>
     <t>room_type#id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>match</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配规则 private/normal/challenge</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +529,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -536,7 +537,7 @@
     <col min="1" max="2" width="13.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" customWidth="1"/>
-    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
@@ -552,131 +553,131 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" t="s">
         <v>30</v>
       </c>
-      <c r="K1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>32</v>
-      </c>
-      <c r="N1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>8</v>
       </c>
-      <c r="N2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>9</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>11</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>12</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>13</v>
-      </c>
-      <c r="T2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D3">
         <v>1.1599999999999999</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -703,22 +704,22 @@
         <v>28800</v>
       </c>
       <c r="O3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" t="s">
         <v>18</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>20</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>21</v>
-      </c>
-      <c r="S3" t="s">
-        <v>22</v>
-      </c>
-      <c r="T3" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/tools/xlsx2json/excel/GameConfig.xlsx
+++ b/tools/xlsx2json/excel/GameConfig.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24195" windowHeight="12870"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24195" windowHeight="12870" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RoomConfig" sheetId="3" r:id="rId1"/>
+    <sheet name="RoomCreateCost" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>app_name</t>
   </si>
@@ -182,6 +183,42 @@
   </si>
   <si>
     <t>匹配规则 private/normal/challenge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost_id#id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game_cnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -726,4 +763,109 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>5001</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>5001</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>5001</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>